--- a/Health insurance raw data.xlsx
+++ b/Health insurance raw data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive - University of Lagos\Desktop\WTF\PROJECTS\POWERBI\Health Insurance Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC75B0D-0DC9-4E86-98E5-D63DCB07FE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928176E8-D2B1-4B31-B425-FEB7B24E6FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="72" windowWidth="9648" windowHeight="11736" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13392" yWindow="504" windowWidth="9648" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master sheet" sheetId="2" r:id="rId1"/>
@@ -7998,8 +7998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEECD89-5360-4764-8AE7-77B484B940F7}">
   <dimension ref="A1:G1339"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38813,7 +38813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="74" workbookViewId="0">
+    <sheetView topLeftCell="C10" zoomScale="74" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/Health insurance raw data.xlsx
+++ b/Health insurance raw data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive - University of Lagos\Desktop\WTF\PROJECTS\POWERBI\Health Insurance Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928176E8-D2B1-4B31-B425-FEB7B24E6FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EC7412-231D-40EA-92EE-B29B1BD4FC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13392" yWindow="504" windowWidth="9648" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master sheet" sheetId="2" r:id="rId1"/>
@@ -7998,8 +7998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEECD89-5360-4764-8AE7-77B484B940F7}">
   <dimension ref="A1:G1339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38813,8 +38813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W549"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="74" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="74" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
